--- a/public/export/thoikhoabieutruong.xlsx
+++ b/public/export/thoikhoabieutruong.xlsx
@@ -65,141 +65,141 @@
     <t>Thứ 2 Sáng</t>
   </si>
   <si>
+    <t>C-cờ</t>
+  </si>
+  <si>
+    <t>Thị-Phương</t>
+  </si>
+  <si>
+    <t>H-Loan</t>
+  </si>
+  <si>
+    <t>Mỹ-Ba</t>
+  </si>
+  <si>
+    <t>Văn-Dũng</t>
+  </si>
+  <si>
+    <t>Thị-Hợp</t>
+  </si>
+  <si>
+    <t>Thị-Tao</t>
+  </si>
+  <si>
+    <t>Vĩ-Đại</t>
+  </si>
+  <si>
+    <t>Thu-Hằng</t>
+  </si>
+  <si>
+    <t>Văn-Khải</t>
+  </si>
+  <si>
+    <t>T-việt</t>
+  </si>
+  <si>
+    <t>T-đọc</t>
+  </si>
+  <si>
+    <t>T đ + K</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>L T V</t>
+  </si>
+  <si>
+    <t>G-ATGT</t>
+  </si>
+  <si>
+    <t>T-công</t>
+  </si>
+  <si>
+    <t>Ngọc-Hiệp</t>
+  </si>
+  <si>
+    <t>T-dục</t>
+  </si>
+  <si>
+    <t>Văn-Duyên</t>
+  </si>
+  <si>
+    <t>T-anh</t>
+  </si>
+  <si>
+    <t>Minh-Thư</t>
+  </si>
+  <si>
+    <t>Â-nhạc</t>
+  </si>
+  <si>
+    <t>Thị-Thắm</t>
+  </si>
+  <si>
+    <t>Đ-đức</t>
+  </si>
+  <si>
+    <t>Văn-Sáu</t>
+  </si>
+  <si>
+    <t>L-Toán</t>
+  </si>
+  <si>
+    <t>Chí-Thắng</t>
+  </si>
+  <si>
+    <t>Văn-Trực</t>
+  </si>
+  <si>
+    <t>M-thuật</t>
+  </si>
+  <si>
+    <t>Thị-Ánh</t>
+  </si>
+  <si>
+    <t>Đ-lý</t>
+  </si>
+  <si>
+    <t>K-thuật</t>
+  </si>
+  <si>
     <t>Thứ 2 Chiều</t>
   </si>
   <si>
+    <t>K-chuyện</t>
+  </si>
+  <si>
+    <t>L t v c</t>
+  </si>
+  <si>
     <t>Thứ 3 Sáng</t>
   </si>
   <si>
-    <t>C-cờ</t>
-  </si>
-  <si>
-    <t>Thị-Phương</t>
-  </si>
-  <si>
-    <t>H-Loan</t>
-  </si>
-  <si>
-    <t>Mỹ-Ba</t>
-  </si>
-  <si>
-    <t>Văn-Dũng</t>
-  </si>
-  <si>
-    <t>Thị-Hợp</t>
-  </si>
-  <si>
-    <t>Thị-Tao</t>
-  </si>
-  <si>
-    <t>Vĩ-Đại</t>
-  </si>
-  <si>
-    <t>Thu-Hằng</t>
-  </si>
-  <si>
-    <t>Văn-Khải</t>
-  </si>
-  <si>
-    <t>T-việt</t>
-  </si>
-  <si>
-    <t>T-đọc</t>
-  </si>
-  <si>
-    <t>T đ + K</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>L T V</t>
-  </si>
-  <si>
-    <t>G-ATGT</t>
-  </si>
-  <si>
-    <t>T-công</t>
-  </si>
-  <si>
-    <t>Ngọc-Hiệp</t>
-  </si>
-  <si>
-    <t>T-dục</t>
-  </si>
-  <si>
-    <t>Văn-Duyên</t>
-  </si>
-  <si>
-    <t>T-anh</t>
-  </si>
-  <si>
-    <t>Minh-Thư</t>
-  </si>
-  <si>
-    <t>Â-nhạc</t>
-  </si>
-  <si>
-    <t>Thị-Thắm</t>
-  </si>
-  <si>
-    <t>Đ-đức</t>
-  </si>
-  <si>
-    <t>Văn-Sáu</t>
-  </si>
-  <si>
-    <t>L-Toán</t>
-  </si>
-  <si>
-    <t>Chí-Thắng</t>
-  </si>
-  <si>
-    <t>Văn-Trực</t>
-  </si>
-  <si>
-    <t>M-thuật</t>
-  </si>
-  <si>
-    <t>Thị-Ánh</t>
-  </si>
-  <si>
-    <t>Đ-lý</t>
-  </si>
-  <si>
-    <t>K-thuật</t>
+    <t>H</t>
+  </si>
+  <si>
+    <t>L-sử</t>
+  </si>
+  <si>
+    <t>C-tả</t>
+  </si>
+  <si>
+    <t>K-học</t>
+  </si>
+  <si>
+    <t>T-viết</t>
+  </si>
+  <si>
+    <t>T l v</t>
   </si>
   <si>
     <t>Thứ 3 Chiều</t>
   </si>
   <si>
-    <t>K-chuyện</t>
-  </si>
-  <si>
-    <t>L t v c</t>
-  </si>
-  <si>
     <t>Thứ 4 Sáng</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>L-sử</t>
-  </si>
-  <si>
-    <t>C-tả</t>
-  </si>
-  <si>
-    <t>K-học</t>
-  </si>
-  <si>
-    <t>T-viết</t>
-  </si>
-  <si>
-    <t>T l v</t>
-  </si>
-  <si>
     <t>Thứ 4 Chiều</t>
   </si>
   <si>
@@ -212,19 +212,19 @@
     <t>Thứ 6 Sáng</t>
   </si>
   <si>
+    <t>S h l</t>
+  </si>
+  <si>
     <t>Thứ 6 Chiều</t>
   </si>
   <si>
+    <t>T-nghiệm</t>
+  </si>
+  <si>
     <t>Thứ 7 Sáng</t>
   </si>
   <si>
-    <t>S h l</t>
-  </si>
-  <si>
     <t>Thứ 7 Chiều</t>
-  </si>
-  <si>
-    <t>T-nghiệm</t>
   </si>
   <si>
     <t>KT. HIỆU TRƯỞNG</t>
@@ -908,26 +908,66 @@
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:69">
@@ -935,26 +975,66 @@
       <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="W8" s="5"/>
     </row>
     <row r="9" spans="1:69">
@@ -962,26 +1042,66 @@
       <c r="B9" s="6">
         <v>3</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="W9" s="5"/>
     </row>
     <row r="10" spans="1:69">
@@ -989,26 +1109,66 @@
       <c r="B10" s="6">
         <v>4</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="W10" s="5"/>
     </row>
     <row r="11" spans="1:69" customHeight="1" ht="15.75">
@@ -1040,29 +1200,61 @@
     </row>
     <row r="12" spans="1:69">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
+      <c r="S12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
@@ -1072,26 +1264,66 @@
       <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:69">
@@ -1099,26 +1331,66 @@
       <c r="B14" s="6">
         <v>3</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:69">
@@ -1177,70 +1449,70 @@
     </row>
     <row r="17" spans="1:69">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="K17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="M17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="O17" s="5" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="W17" s="5"/>
     </row>
@@ -1250,64 +1522,64 @@
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>30</v>
       </c>
       <c r="N18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R18" s="5" t="s">
+      <c r="U18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V18" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="V18" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="W18" s="5"/>
     </row>
@@ -1317,64 +1589,64 @@
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="I19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="K19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="5" t="s">
+      <c r="M19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="O19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="5" t="s">
+      <c r="S19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="T19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R19" s="5" t="s">
+      <c r="U19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V19" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="W19" s="5"/>
     </row>
@@ -1384,64 +1656,64 @@
         <v>4</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="W20" s="5"/>
     </row>
@@ -1474,60 +1746,60 @@
     </row>
     <row r="22" spans="1:69">
       <c r="A22" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="M22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="N22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M22" s="5" t="s">
+      <c r="O22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="P22" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
@@ -1539,64 +1811,56 @@
         <v>2</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
       <c r="S23" s="5" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="W23" s="5"/>
     </row>
@@ -1606,64 +1870,64 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>29</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="T24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="V24" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="U24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="V24" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="W24" s="5"/>
     </row>
@@ -1723,61 +1987,61 @@
     </row>
     <row r="27" spans="1:69">
       <c r="A27" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="5" t="s">
+      <c r="I27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="5" t="s">
+      <c r="K27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L27" s="5" t="s">
+      <c r="O27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="S27" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="T27" s="5" t="s">
         <v>35</v>
@@ -1796,64 +2060,64 @@
         <v>2</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="5" t="s">
+      <c r="I28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="5" t="s">
+      <c r="K28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="M28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L28" s="5" t="s">
+      <c r="P28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N28" s="5" t="s">
+      <c r="S28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="5" t="s">
+      <c r="U28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="R28" s="5" t="s">
+      <c r="V28" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="U28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="V28" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="W28" s="5"/>
     </row>
@@ -1863,64 +2127,64 @@
         <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="5" t="s">
+      <c r="I29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="5" t="s">
+      <c r="K29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="5" t="s">
+      <c r="M29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" s="5" t="s">
+      <c r="O29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R29" s="5" t="s">
+      <c r="S29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="S29" s="5" t="s">
+      <c r="U29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T29" s="5" t="s">
+      <c r="V29" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="U29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="V29" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="W29" s="5"/>
     </row>
@@ -1930,64 +2194,64 @@
         <v>4</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N30" s="5" t="s">
+      <c r="T30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O30" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R30" s="5" t="s">
+      <c r="U30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V30" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="S30" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="U30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="V30" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="W30" s="5"/>
     </row>
@@ -2026,28 +2290,28 @@
         <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>36</v>
@@ -2055,25 +2319,21 @@
       <c r="L32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
       <c r="O32" s="5" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
@@ -2085,29 +2345,25 @@
         <v>2</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="5" t="s">
         <v>36</v>
       </c>
@@ -2115,27 +2371,23 @@
         <v>37</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="V33" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="Q33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
       <c r="W33" s="5"/>
     </row>
     <row r="34" spans="1:69">
@@ -2144,64 +2396,64 @@
         <v>3</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="5" t="s">
+      <c r="I34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="K34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q34" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="R34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M34" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O34" s="5" t="s">
+      <c r="S34" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R34" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S34" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="T34" s="5" t="s">
         <v>35</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="W34" s="5"/>
     </row>
@@ -2267,64 +2519,64 @@
         <v>1</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="I37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S37" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J37" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O37" s="5" t="s">
+      <c r="T37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="P37" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q37" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R37" s="5" t="s">
+      <c r="V37" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="S37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T37" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V37" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="W37" s="5"/>
     </row>
@@ -2334,64 +2586,60 @@
         <v>2</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="K38" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L38" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N38" s="5" t="s">
+      <c r="S38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T38" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T38" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="U38" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="V38" s="5" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="W38" s="5"/>
     </row>
@@ -2401,64 +2649,56 @@
         <v>3</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="F39" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="L39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M39" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O39" s="5" t="s">
+      <c r="S39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U39" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P39" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="R39" s="5" t="s">
+      <c r="V39" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="S39" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U39" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V39" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="W39" s="5"/>
     </row>
@@ -2468,64 +2708,52 @@
         <v>4</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
       <c r="Q40" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W40" s="5"/>
     </row>
@@ -2564,53 +2792,45 @@
         <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L42" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
-      <c r="O42" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
-      <c r="S42" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="T42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="W42" s="5"/>
     </row>
     <row r="43" spans="1:69">
@@ -2619,44 +2839,28 @@
         <v>2</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
@@ -2670,10 +2874,10 @@
         <v>3</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>40</v>
@@ -2681,54 +2885,38 @@
       <c r="F44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" s="5" t="s">
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N44" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
       <c r="O44" s="5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S44" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T44" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U44" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="V44" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
       <c r="W44" s="5"/>
     </row>
     <row r="45" spans="1:69">
@@ -2793,34 +2981,34 @@
         <v>1</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="5" t="s">
+      <c r="I47" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H47" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="J47" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M47" s="5" t="s">
         <v>36</v>
@@ -2829,29 +3017,21 @@
         <v>37</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="S47" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="T47" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="U47" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="V47" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
       <c r="W47" s="5"/>
     </row>
     <row r="48" spans="1:69">
@@ -2859,61 +3039,45 @@
       <c r="B48" s="6">
         <v>2</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" s="5" t="s">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V48" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P48" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q48" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="R48" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S48" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="T48" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="U48" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="V48" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="W48" s="5"/>
     </row>
@@ -2923,56 +3087,64 @@
         <v>3</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="I49" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="Q49" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="R49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V49" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="S49" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T49" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U49" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="V49" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="W49" s="5"/>
     </row>
@@ -2982,52 +3154,64 @@
         <v>4</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="F50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J50" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
+      <c r="K50" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="Q50" s="5" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="R50" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="S50" s="5" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U50" s="5" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="V50" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W50" s="5"/>
     </row>
@@ -3060,51 +3244,39 @@
     </row>
     <row r="52" spans="1:69">
       <c r="A52" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B52" s="6">
         <v>1</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
+      <c r="M52" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
-      <c r="U52" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="V52" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
       <c r="W52" s="5"/>
     </row>
     <row r="53" spans="1:69">
@@ -3112,29 +3284,41 @@
       <c r="B53" s="6">
         <v>2</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
+      <c r="G53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
+      <c r="O53" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="Q53" s="5" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="R53" s="5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
@@ -3148,49 +3332,65 @@
         <v>3</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="I54" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="L54" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R54" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P54" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q54" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R54" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
+      <c r="S54" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T54" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V54" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="W54" s="5"/>
     </row>
     <row r="55" spans="1:69">
@@ -3249,59 +3449,27 @@
     </row>
     <row r="57" spans="1:69">
       <c r="A57" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B57" s="6">
         <v>1</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N57" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O57" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P57" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q57" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R57" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
@@ -3317,42 +3485,22 @@
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N58" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O58" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P58" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
-      <c r="U58" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="V58" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
       <c r="W58" s="5"/>
     </row>
     <row r="59" spans="1:69">
@@ -3360,66 +3508,26 @@
       <c r="B59" s="6">
         <v>3</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L59" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M59" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N59" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O59" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P59" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q59" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="R59" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S59" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="T59" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="U59" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="V59" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
       <c r="W59" s="5"/>
     </row>
     <row r="60" spans="1:69">
@@ -3427,66 +3535,26 @@
       <c r="B60" s="6">
         <v>4</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L60" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M60" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N60" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O60" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="P60" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q60" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="R60" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S60" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="T60" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="U60" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="V60" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
       <c r="W60" s="5"/>
     </row>
     <row r="61" spans="1:69" customHeight="1" ht="15.75">
@@ -3518,31 +3586,23 @@
     </row>
     <row r="62" spans="1:69">
       <c r="A62" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B62" s="6">
         <v>1</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N62" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
@@ -3562,38 +3622,18 @@
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L63" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
-      <c r="O63" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P63" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q63" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R63" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
@@ -3605,66 +3645,26 @@
       <c r="B64" s="6">
         <v>3</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L64" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M64" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N64" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O64" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P64" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q64" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="R64" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S64" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="T64" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="U64" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="V64" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
       <c r="W64" s="5"/>
     </row>
     <row r="65" spans="1:69">

--- a/public/export/thoikhoabieutruong.xlsx
+++ b/public/export/thoikhoabieutruong.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>Thứ</t>
   </si>
@@ -65,7 +65,7 @@
     <t>Thứ 2 Sáng</t>
   </si>
   <si>
-    <t>C-cờ</t>
+    <t>Chào cờ</t>
   </si>
   <si>
     <t>Thị-Phương</t>
@@ -95,111 +95,117 @@
     <t>Văn-Khải</t>
   </si>
   <si>
-    <t>T-việt</t>
-  </si>
-  <si>
-    <t>T-đọc</t>
-  </si>
-  <si>
-    <t>T đ + K</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>L T V</t>
-  </si>
-  <si>
-    <t>G-ATGT</t>
-  </si>
-  <si>
-    <t>T-công</t>
+    <t>Tiếng việt</t>
+  </si>
+  <si>
+    <t>Tập đọc</t>
+  </si>
+  <si>
+    <t>Tập đọc + KC</t>
+  </si>
+  <si>
+    <t>Toán</t>
+  </si>
+  <si>
+    <t>Đạo đức</t>
+  </si>
+  <si>
+    <t>Thị-Thắm</t>
+  </si>
+  <si>
+    <t>Thể dục</t>
+  </si>
+  <si>
+    <t>Văn-Duyên</t>
+  </si>
+  <si>
+    <t>Thủ công</t>
   </si>
   <si>
     <t>Ngọc-Hiệp</t>
   </si>
   <si>
-    <t>T-dục</t>
-  </si>
-  <si>
-    <t>Văn-Duyên</t>
-  </si>
-  <si>
-    <t>T-anh</t>
+    <t>Luyện từ và câu</t>
+  </si>
+  <si>
+    <t>Tiếng anh</t>
   </si>
   <si>
     <t>Minh-Thư</t>
   </si>
   <si>
-    <t>Â-nhạc</t>
-  </si>
-  <si>
-    <t>Thị-Thắm</t>
-  </si>
-  <si>
-    <t>Đ-đức</t>
+    <t>Khoa học</t>
+  </si>
+  <si>
+    <t>L Toán</t>
+  </si>
+  <si>
+    <t>Chí-Thắng</t>
+  </si>
+  <si>
+    <t>TNXH</t>
   </si>
   <si>
     <t>Văn-Sáu</t>
   </si>
   <si>
-    <t>L-Toán</t>
-  </si>
-  <si>
-    <t>Chí-Thắng</t>
-  </si>
-  <si>
     <t>Văn-Trực</t>
   </si>
   <si>
-    <t>M-thuật</t>
+    <t>Mĩ thuật</t>
   </si>
   <si>
     <t>Thị-Ánh</t>
   </si>
   <si>
-    <t>Đ-lý</t>
-  </si>
-  <si>
-    <t>K-thuật</t>
+    <t>Âm nhạc</t>
+  </si>
+  <si>
+    <t>Chính tả</t>
   </si>
   <si>
     <t>Thứ 2 Chiều</t>
   </si>
   <si>
-    <t>K-chuyện</t>
-  </si>
-  <si>
-    <t>L t v c</t>
+    <t>L T Việt</t>
+  </si>
+  <si>
+    <t>GD ATGT</t>
+  </si>
+  <si>
+    <t>Lịch sử</t>
+  </si>
+  <si>
+    <t>Kỹ thuật</t>
   </si>
   <si>
     <t>Thứ 3 Sáng</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>L-sử</t>
-  </si>
-  <si>
-    <t>C-tả</t>
-  </si>
-  <si>
-    <t>K-học</t>
-  </si>
-  <si>
-    <t>T-viết</t>
-  </si>
-  <si>
-    <t>T l v</t>
+    <t>Kể chuyện</t>
+  </si>
+  <si>
+    <t>HĐNK</t>
+  </si>
+  <si>
+    <t>Địa lý</t>
+  </si>
+  <si>
+    <t>Trải nghiệm</t>
   </si>
   <si>
     <t>Thứ 3 Chiều</t>
   </si>
   <si>
+    <t>Tập viết</t>
+  </si>
+  <si>
     <t>Thứ 4 Sáng</t>
   </si>
   <si>
+    <t>Tập làm văn</t>
+  </si>
+  <si>
     <t>Thứ 4 Chiều</t>
   </si>
   <si>
@@ -212,13 +218,10 @@
     <t>Thứ 6 Sáng</t>
   </si>
   <si>
-    <t>S h l</t>
+    <t>Sinh hoạt lớp</t>
   </si>
   <si>
     <t>Thứ 6 Chiều</t>
-  </si>
-  <si>
-    <t>T-nghiệm</t>
   </si>
   <si>
     <t>Thứ 7 Sáng</t>
@@ -638,25 +641,25 @@
   <cols>
     <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="1"/>
     <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="1"/>
-    <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="1"/>
+    <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="1"/>
     <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="1"/>
-    <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="1"/>
+    <col min="5" max="5" width="16.424561" bestFit="true" customWidth="true" style="1"/>
     <col min="6" max="6" width="11.711426" bestFit="true" customWidth="true" style="1"/>
-    <col min="7" max="7" width="10.568848" bestFit="true" customWidth="true" style="1"/>
+    <col min="7" max="7" width="18.709717" bestFit="true" customWidth="true" style="1"/>
     <col min="8" max="8" width="11.711426" bestFit="true" customWidth="true" style="1"/>
-    <col min="9" max="9" width="10.568848" bestFit="true" customWidth="true" style="1"/>
+    <col min="9" max="9" width="18.709717" bestFit="true" customWidth="true" style="1"/>
     <col min="10" max="10" width="11.711426" bestFit="true" customWidth="true" style="1"/>
-    <col min="11" max="11" width="9.283447" bestFit="true" customWidth="true" style="1"/>
+    <col min="11" max="11" width="18.709717" bestFit="true" customWidth="true" style="1"/>
     <col min="12" max="12" width="11.711426" bestFit="true" customWidth="true" style="1"/>
-    <col min="13" max="13" width="9.283447" bestFit="true" customWidth="true" style="1"/>
+    <col min="13" max="13" width="18.709717" bestFit="true" customWidth="true" style="1"/>
     <col min="14" max="14" width="11.711426" bestFit="true" customWidth="true" style="1"/>
-    <col min="15" max="15" width="10.568848" bestFit="true" customWidth="true" style="1"/>
+    <col min="15" max="15" width="18.709717" bestFit="true" customWidth="true" style="1"/>
     <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="1"/>
-    <col min="17" max="17" width="10.568848" bestFit="true" customWidth="true" style="1"/>
+    <col min="17" max="17" width="18.709717" bestFit="true" customWidth="true" style="1"/>
     <col min="18" max="18" width="11.711426" bestFit="true" customWidth="true" style="1"/>
-    <col min="19" max="19" width="10.568848" bestFit="true" customWidth="true" style="1"/>
+    <col min="19" max="19" width="18.709717" bestFit="true" customWidth="true" style="1"/>
     <col min="20" max="20" width="11.711426" bestFit="true" customWidth="true" style="1"/>
-    <col min="21" max="21" width="10.568848" bestFit="true" customWidth="true" style="1"/>
+    <col min="21" max="21" width="18.709717" bestFit="true" customWidth="true" style="1"/>
     <col min="22" max="22" width="11.711426" bestFit="true" customWidth="true" style="1"/>
     <col min="23" max="23" width="17.567139" bestFit="true" customWidth="true" style="1"/>
     <col min="24" max="24" width="9.10" bestFit="true" style="1"/>
@@ -1055,52 +1058,52 @@
         <v>18</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="R9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="T9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="U9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="U9" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="V9" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="W9" s="5"/>
     </row>
@@ -1110,19 +1113,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>44</v>
@@ -1131,43 +1134,43 @@
         <v>45</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>46</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>47</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="T10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="V10" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="W10" s="5"/>
     </row>
@@ -1206,57 +1209,65 @@
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>45</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="K12" s="5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>46</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
+      <c r="Q12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="S12" s="5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="W12" s="5"/>
     </row>
     <row r="13" spans="1:69">
@@ -1338,7 +1349,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>18</v>
@@ -1350,46 +1361,46 @@
         <v>19</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="S14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="U14" s="5" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W14" s="5"/>
     </row>
@@ -1449,7 +1460,7 @@
     </row>
     <row r="17" spans="1:69">
       <c r="A17" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -1461,58 +1472,58 @@
         <v>17</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="S17" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="W17" s="5"/>
     </row>
@@ -1540,43 +1551,43 @@
         <v>19</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="R18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="T18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>25</v>
@@ -1595,16 +1606,16 @@
         <v>17</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>50</v>
@@ -1613,40 +1624,40 @@
         <v>20</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V19" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="W19" s="5"/>
     </row>
@@ -1656,19 +1667,19 @@
         <v>4</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>19</v>
@@ -1680,37 +1691,37 @@
         <v>20</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="T20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>25</v>
@@ -1752,54 +1763,58 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="I22" s="5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>44</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
       <c r="S22" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
@@ -1811,56 +1826,64 @@
         <v>2</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>44</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
+      <c r="P23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="S23" s="5" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="W23" s="5"/>
     </row>
@@ -1870,64 +1893,64 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="W24" s="5"/>
     </row>
@@ -1987,7 +2010,7 @@
     </row>
     <row r="27" spans="1:69">
       <c r="A27" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
@@ -1999,10 +2022,10 @@
         <v>17</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>29</v>
@@ -2011,7 +2034,7 @@
         <v>19</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>20</v>
@@ -2023,34 +2046,34 @@
         <v>21</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="T27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V27" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="U27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="V27" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="W27" s="5"/>
     </row>
@@ -2072,49 +2095,49 @@
         <v>18</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="T28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>25</v>
@@ -2133,25 +2156,25 @@
         <v>17</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>21</v>
@@ -2166,25 +2189,25 @@
         <v>53</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="V29" s="5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="W29" s="5"/>
     </row>
@@ -2194,61 +2217,61 @@
         <v>4</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="T30" s="5" t="s">
         <v>24</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="V30" s="5" t="s">
         <v>25</v>
@@ -2284,56 +2307,60 @@
     </row>
     <row r="32" spans="1:69">
       <c r="A32" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="G32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="5" t="s">
+      <c r="M32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="S32" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
@@ -2348,44 +2375,52 @@
         <v>45</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="G33" s="5" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="K33" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="Q33" s="5" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="R33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
+      <c r="S33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
@@ -2396,64 +2431,64 @@
         <v>3</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="I34" s="5" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="R34" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="W34" s="5"/>
     </row>
@@ -2513,7 +2548,7 @@
     </row>
     <row r="37" spans="1:69">
       <c r="A37" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B37" s="6">
         <v>1</v>
@@ -2537,46 +2572,46 @@
         <v>19</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="J37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K37" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L37" s="5" t="s">
+      <c r="U37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V37" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q37" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S37" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="T37" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="U37" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="V37" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="W37" s="5"/>
     </row>
@@ -2598,48 +2633,52 @@
         <v>18</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="O38" s="5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="R38" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="T38" s="5" t="s">
         <v>24</v>
       </c>
       <c r="U38" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V38" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W38" s="5"/>
     </row>
@@ -2649,53 +2688,61 @@
         <v>3</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I39" s="5" t="s">
+      <c r="K39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J39" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
       <c r="Q39" s="5" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="R39" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U39" s="5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="V39" s="5" t="s">
         <v>25</v>
@@ -2708,43 +2755,55 @@
         <v>4</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="Q40" s="5" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="T40" s="5" t="s">
         <v>24</v>
@@ -2786,37 +2845,37 @@
     </row>
     <row r="42" spans="1:69">
       <c r="A42" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B42" s="6">
         <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
@@ -2826,7 +2885,7 @@
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="V42" s="5" t="s">
         <v>25</v>
@@ -2839,29 +2898,33 @@
         <v>2</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
+      <c r="M43" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
-      <c r="Q43" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
@@ -2874,49 +2937,57 @@
         <v>3</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="I44" s="5" t="s">
         <v>34</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K44" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="P44" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T44" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q44" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
+      <c r="U44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V44" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="W44" s="5"/>
     </row>
     <row r="45" spans="1:69">
@@ -2975,7 +3046,7 @@
     </row>
     <row r="47" spans="1:69">
       <c r="A47" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B47" s="6">
         <v>1</v>
@@ -2993,45 +3064,53 @@
         <v>18</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>35</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T47" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V47" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="W47" s="5"/>
     </row>
     <row r="48" spans="1:69">
@@ -3044,10 +3123,10 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>29</v>
@@ -3055,29 +3134,41 @@
       <c r="J48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
+      <c r="K48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="M48" s="5" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="P48" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
+      <c r="T48" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="U48" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="V48" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="W48" s="5"/>
     </row>
@@ -3111,31 +3202,31 @@
         <v>20</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N49" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P49" s="5" t="s">
         <v>17</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="R49" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S49" s="5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="T49" s="5" t="s">
         <v>24</v>
@@ -3154,61 +3245,61 @@
         <v>4</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N50" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P50" s="5" t="s">
         <v>17</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R50" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S50" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="T50" s="5" t="s">
         <v>24</v>
       </c>
       <c r="U50" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="V50" s="5" t="s">
         <v>25</v>
@@ -3244,7 +3335,7 @@
     </row>
     <row r="52" spans="1:69">
       <c r="A52" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B52" s="6">
         <v>1</v>
@@ -3264,15 +3355,19 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N52" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="N52" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
+      <c r="Q52" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
@@ -3288,40 +3383,40 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="L53" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L53" s="5" t="s">
+      <c r="M53" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S53" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T53" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P53" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q53" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R53" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
@@ -3332,37 +3427,37 @@
         <v>3</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N54" s="5" t="s">
         <v>22</v>
@@ -3374,13 +3469,13 @@
         <v>17</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="R54" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S54" s="5" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="T54" s="5" t="s">
         <v>24</v>
@@ -3449,7 +3544,7 @@
     </row>
     <row r="57" spans="1:69">
       <c r="A57" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="6">
         <v>1</v>
@@ -3586,7 +3681,7 @@
     </row>
     <row r="62" spans="1:69">
       <c r="A62" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B62" s="6">
         <v>1</v>
@@ -3789,12 +3884,12 @@
     </row>
     <row r="70" spans="1:69">
       <c r="T70" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:69">
       <c r="T71" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/public/export/thoikhoabieutruong.xlsx
+++ b/public/export/thoikhoabieutruong.xlsx
@@ -107,121 +107,121 @@
     <t>Toán</t>
   </si>
   <si>
+    <t>L T Việt</t>
+  </si>
+  <si>
+    <t>GD ATGT</t>
+  </si>
+  <si>
+    <t>Thủ công</t>
+  </si>
+  <si>
+    <t>Ngọc-Hiệp</t>
+  </si>
+  <si>
+    <t>Thể dục</t>
+  </si>
+  <si>
+    <t>Văn-Duyên</t>
+  </si>
+  <si>
+    <t>Tiếng anh</t>
+  </si>
+  <si>
+    <t>Minh-Thư</t>
+  </si>
+  <si>
+    <t>Âm nhạc</t>
+  </si>
+  <si>
+    <t>Thị-Thắm</t>
+  </si>
+  <si>
     <t>Đạo đức</t>
   </si>
   <si>
-    <t>Thị-Thắm</t>
-  </si>
-  <si>
-    <t>Thể dục</t>
-  </si>
-  <si>
-    <t>Văn-Duyên</t>
-  </si>
-  <si>
-    <t>Thủ công</t>
-  </si>
-  <si>
-    <t>Ngọc-Hiệp</t>
+    <t>Văn-Sáu</t>
+  </si>
+  <si>
+    <t>L Toán</t>
+  </si>
+  <si>
+    <t>Chí-Thắng</t>
+  </si>
+  <si>
+    <t>TNXH</t>
+  </si>
+  <si>
+    <t>Văn-Trực</t>
+  </si>
+  <si>
+    <t>Mĩ thuật</t>
+  </si>
+  <si>
+    <t>Thị-Ánh</t>
+  </si>
+  <si>
+    <t>Địa lý</t>
+  </si>
+  <si>
+    <t>Kỹ thuật</t>
+  </si>
+  <si>
+    <t>Thứ 2 Chiều</t>
+  </si>
+  <si>
+    <t>Kể chuyện</t>
   </si>
   <si>
     <t>Luyện từ và câu</t>
   </si>
   <si>
-    <t>Tiếng anh</t>
-  </si>
-  <si>
-    <t>Minh-Thư</t>
+    <t>Thứ 3 Sáng</t>
+  </si>
+  <si>
+    <t>HĐNK</t>
+  </si>
+  <si>
+    <t>Lịch sử</t>
+  </si>
+  <si>
+    <t>Chính tả</t>
   </si>
   <si>
     <t>Khoa học</t>
   </si>
   <si>
-    <t>L Toán</t>
-  </si>
-  <si>
-    <t>Chí-Thắng</t>
-  </si>
-  <si>
-    <t>TNXH</t>
-  </si>
-  <si>
-    <t>Văn-Sáu</t>
-  </si>
-  <si>
-    <t>Văn-Trực</t>
-  </si>
-  <si>
-    <t>Mĩ thuật</t>
-  </si>
-  <si>
-    <t>Thị-Ánh</t>
-  </si>
-  <si>
-    <t>Âm nhạc</t>
-  </si>
-  <si>
-    <t>Chính tả</t>
-  </si>
-  <si>
-    <t>Thứ 2 Chiều</t>
-  </si>
-  <si>
-    <t>L T Việt</t>
-  </si>
-  <si>
-    <t>GD ATGT</t>
-  </si>
-  <si>
-    <t>Lịch sử</t>
-  </si>
-  <si>
-    <t>Kỹ thuật</t>
-  </si>
-  <si>
-    <t>Thứ 3 Sáng</t>
-  </si>
-  <si>
-    <t>Kể chuyện</t>
-  </si>
-  <si>
-    <t>HĐNK</t>
-  </si>
-  <si>
-    <t>Địa lý</t>
+    <t>Tập viết</t>
+  </si>
+  <si>
+    <t>Tập làm văn</t>
+  </si>
+  <si>
+    <t>Thứ 3 Chiều</t>
+  </si>
+  <si>
+    <t>Thứ 4 Sáng</t>
+  </si>
+  <si>
+    <t>Thứ 4 Chiều</t>
+  </si>
+  <si>
+    <t>Thứ 5 Sáng</t>
+  </si>
+  <si>
+    <t>Thứ 5 Chiều</t>
+  </si>
+  <si>
+    <t>Thứ 6 Sáng</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp</t>
+  </si>
+  <si>
+    <t>Thứ 6 Chiều</t>
   </si>
   <si>
     <t>Trải nghiệm</t>
-  </si>
-  <si>
-    <t>Thứ 3 Chiều</t>
-  </si>
-  <si>
-    <t>Tập viết</t>
-  </si>
-  <si>
-    <t>Thứ 4 Sáng</t>
-  </si>
-  <si>
-    <t>Tập làm văn</t>
-  </si>
-  <si>
-    <t>Thứ 4 Chiều</t>
-  </si>
-  <si>
-    <t>Thứ 5 Sáng</t>
-  </si>
-  <si>
-    <t>Thứ 5 Chiều</t>
-  </si>
-  <si>
-    <t>Thứ 6 Sáng</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp</t>
-  </si>
-  <si>
-    <t>Thứ 6 Chiều</t>
   </si>
   <si>
     <t>Thứ 7 Sáng</t>
@@ -1058,52 +1058,52 @@
         <v>18</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="J9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="P9" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="W9" s="5"/>
     </row>
@@ -1113,64 +1113,64 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="H10" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="5" t="s">
+      <c r="O10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V10" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="W10" s="5"/>
     </row>
@@ -1203,71 +1203,63 @@
     </row>
     <row r="12" spans="1:69">
       <c r="A12" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="G12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="P12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" s="5" t="s">
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q12" s="5" t="s">
+      <c r="T12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
       <c r="W12" s="5"/>
     </row>
     <row r="13" spans="1:69">
@@ -1349,34 +1341,34 @@
         <v>17</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>52</v>
@@ -1385,22 +1377,22 @@
         <v>17</v>
       </c>
       <c r="Q14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="R14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="U14" s="5" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W14" s="5"/>
     </row>
@@ -1460,7 +1452,7 @@
     </row>
     <row r="17" spans="1:69">
       <c r="A17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -1472,58 +1464,58 @@
         <v>17</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="P17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="T17" s="5" t="s">
+      <c r="U17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V17" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="W17" s="5"/>
     </row>
@@ -1545,49 +1537,49 @@
         <v>18</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="R18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="T18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>25</v>
@@ -1606,58 +1598,58 @@
         <v>17</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="P19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="S19" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="W19" s="5"/>
     </row>
@@ -1667,61 +1659,61 @@
         <v>4</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="T20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>25</v>
@@ -1757,64 +1749,60 @@
     </row>
     <row r="22" spans="1:69">
       <c r="A22" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="I22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="M22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="O22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="O22" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="P22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>35</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
       <c r="S22" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
@@ -1826,64 +1814,56 @@
         <v>2</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="K23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="M23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="O23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="V23" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="W23" s="5"/>
     </row>
@@ -1893,37 +1873,37 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>22</v>
@@ -1935,22 +1915,22 @@
         <v>17</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T24" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="U24" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="W24" s="5"/>
     </row>
@@ -2022,10 +2002,10 @@
         <v>17</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>29</v>
@@ -2034,46 +2014,46 @@
         <v>19</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W27" s="5"/>
     </row>
@@ -2095,49 +2075,49 @@
         <v>18</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="T28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>25</v>
@@ -2156,25 +2136,25 @@
         <v>17</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>21</v>
@@ -2186,28 +2166,28 @@
         <v>22</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q29" s="5" t="s">
+      <c r="U29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V29" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="S29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="V29" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="W29" s="5"/>
     </row>
@@ -2217,61 +2197,61 @@
         <v>4</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="T30" s="5" t="s">
         <v>24</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="V30" s="5" t="s">
         <v>25</v>
@@ -2307,60 +2287,56 @@
     </row>
     <row r="32" spans="1:69">
       <c r="A32" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="G32" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M32" s="5" t="s">
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="P32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
       <c r="S32" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
@@ -2372,55 +2348,47 @@
         <v>2</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="G33" s="5" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>43</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L33" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5" t="s">
+      <c r="M33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="R33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
@@ -2431,64 +2399,64 @@
         <v>3</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="R34" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="W34" s="5"/>
     </row>
@@ -2548,7 +2516,7 @@
     </row>
     <row r="37" spans="1:69">
       <c r="A37" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" s="6">
         <v>1</v>
@@ -2572,46 +2540,46 @@
         <v>19</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="P37" s="5" t="s">
+      <c r="S37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T37" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Q37" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S37" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T37" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="U37" s="5" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="V37" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="W37" s="5"/>
     </row>
@@ -2633,52 +2601,48 @@
         <v>18</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
       <c r="O38" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="R38" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T38" s="5" t="s">
         <v>24</v>
       </c>
       <c r="U38" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V38" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W38" s="5"/>
     </row>
@@ -2688,61 +2652,53 @@
         <v>3</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P39" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
       <c r="Q39" s="5" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="R39" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U39" s="5" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="V39" s="5" t="s">
         <v>25</v>
@@ -2755,61 +2711,49 @@
         <v>4</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R40" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q40" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="S40" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="T40" s="5" t="s">
         <v>24</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V40" s="5" t="s">
         <v>25</v>
@@ -2845,37 +2789,37 @@
     </row>
     <row r="42" spans="1:69">
       <c r="A42" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" s="6">
         <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="G42" s="5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
@@ -2885,7 +2829,7 @@
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="V42" s="5" t="s">
         <v>25</v>
@@ -2898,33 +2842,29 @@
         <v>2</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
+      <c r="Q43" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
@@ -2937,57 +2877,49 @@
         <v>3</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
       <c r="I44" s="5" t="s">
         <v>34</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
+      <c r="K44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R44" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P44" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S44" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U44" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="V44" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
       <c r="W44" s="5"/>
     </row>
     <row r="45" spans="1:69">
@@ -3046,7 +2978,7 @@
     </row>
     <row r="47" spans="1:69">
       <c r="A47" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="6">
         <v>1</v>
@@ -3064,53 +2996,45 @@
         <v>18</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>35</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="S47" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="T47" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U47" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="V47" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
       <c r="W47" s="5"/>
     </row>
     <row r="48" spans="1:69">
@@ -3123,10 +3047,10 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>29</v>
@@ -3134,41 +3058,29 @@
       <c r="J48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K48" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L48" s="5" t="s">
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M48" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="N48" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q48" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="R48" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S48" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T48" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
       <c r="U48" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V48" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="W48" s="5"/>
     </row>
@@ -3202,31 +3114,31 @@
         <v>20</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N49" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P49" s="5" t="s">
         <v>17</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="R49" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S49" s="5" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="T49" s="5" t="s">
         <v>24</v>
@@ -3245,61 +3157,61 @@
         <v>4</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N50" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P50" s="5" t="s">
         <v>17</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R50" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S50" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T50" s="5" t="s">
         <v>24</v>
       </c>
       <c r="U50" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V50" s="5" t="s">
         <v>25</v>
@@ -3335,7 +3247,7 @@
     </row>
     <row r="52" spans="1:69">
       <c r="A52" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" s="6">
         <v>1</v>
@@ -3355,19 +3267,15 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
-      <c r="Q52" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R52" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
@@ -3383,40 +3291,40 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
+      <c r="G53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="K53" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M53" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N53" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
       <c r="O53" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R53" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="R53" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="S53" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T53" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
@@ -3427,37 +3335,37 @@
         <v>3</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N54" s="5" t="s">
         <v>22</v>
@@ -3469,13 +3377,13 @@
         <v>17</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="R54" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S54" s="5" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="T54" s="5" t="s">
         <v>24</v>
